--- a/core/data_base/dan_soil.xlsx
+++ b/core/data_base/dan_soil.xlsx
@@ -24,9 +24,6 @@
     <t>code_poch</t>
   </si>
   <si>
-    <t>code_mehs</t>
-  </si>
-  <si>
     <t>num_sloi</t>
   </si>
   <si>
@@ -41,15 +38,24 @@
   <si>
     <t>wl_bpk</t>
   </si>
+  <si>
+    <t>code_meh</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -73,8 +79,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -425,31 +432,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G257"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
